--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504826.511754914</v>
+        <v>2502938.930238511</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>155.1292598041366</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>99.38122376111785</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>186.7990677979693</v>
+        <v>383.1210607601529</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>196.7218456862861</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.2713935802969</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>264.1949060168078</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>126.7477612906591</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295489</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385035</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.42218700821073</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.90175579878733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896924</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>62.63869417193528</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>33.3514698018591</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>17.29855725687369</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>253.9720404106349</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>35.58458003433908</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>51.20146353803775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>58.19095390327346</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151925</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>5.322702126629938</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.54225047951653</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550463</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373747</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463244</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,7 +4325,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2485.424179524335</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2111.958421263255</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943677</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943677</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>627.7439097002546</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>373.0594214943677</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>373.0594214943677</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>373.0594214943677</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>373.0594214943677</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.2839875620903</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>768.2839875620903</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>410.0182889553398</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>410.0182889553398</v>
+        <v>782.0520763105717</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641996</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064341</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U7" t="n">
-        <v>529.4200491697815</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>246.1363086691492</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.970060705655</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.970060705655</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1284.970060705655</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>899.1818081074105</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>488.1959033178029</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>474.2724992563938</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942546</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942546</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942546</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681466</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.970060705655</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,52 +5021,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.9566742968624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>128.9566742968624</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D13" t="n">
-        <v>128.9566742968624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>128.9566742968624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>128.9566742968624</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706323</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>531.3977182706323</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>531.3977182706323</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>310.6051391271021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V16" t="n">
         <v>731.3177283550795</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181189</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>441.9005583181189</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>310.6051391271017</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>160.488499714766</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>160.488499714766</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>160.488499714766</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>160.488499714766</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247864</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383446</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324577</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954971</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>310.6051391271017</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,13 +5741,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5756,7 +5756,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967966</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>226.2249729967966</v>
       </c>
       <c r="D22" t="n">
         <v>208.7516828383384</v>
@@ -5905,19 +5905,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227922</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227922</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W22" t="n">
-        <v>618.3896985665954</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="X22" t="n">
-        <v>390.400147668578</v>
+        <v>447.0175521403268</v>
       </c>
       <c r="Y22" t="n">
-        <v>390.400147668578</v>
+        <v>226.2249729967966</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.169691290395</v>
+        <v>450.010388207292</v>
       </c>
       <c r="C25" t="n">
-        <v>359.169691290395</v>
+        <v>281.0742052793851</v>
       </c>
       <c r="D25" t="n">
-        <v>359.169691290395</v>
+        <v>281.0742052793851</v>
       </c>
       <c r="E25" t="n">
-        <v>359.169691290395</v>
+        <v>133.161111696992</v>
       </c>
       <c r="F25" t="n">
-        <v>359.169691290395</v>
+        <v>133.161111696992</v>
       </c>
       <c r="G25" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1023.492195224539</v>
+        <v>898.7925182488393</v>
       </c>
       <c r="V25" t="n">
-        <v>768.8077070186521</v>
+        <v>898.7925182488393</v>
       </c>
       <c r="W25" t="n">
-        <v>768.8077070186521</v>
+        <v>898.7925182488393</v>
       </c>
       <c r="X25" t="n">
-        <v>540.8181561206347</v>
+        <v>670.802967350822</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.8181561206347</v>
+        <v>450.010388207292</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>929.5163332765956</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.3337308726217</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>985.5330309511298</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>696.1158609141692</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>468.1263100161518</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>247.3337308726217</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215261</v>
+        <v>439.532429954217</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749898</v>
+        <v>434.1559631596413</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440247</v>
+        <v>339.8001890286762</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430023</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264626</v>
+        <v>247.6479607276538</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276538</v>
@@ -6616,25 +6616,25 @@
         <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021646</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1901.234900955551</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1757.075756152474</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1589.051206223351</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1355.683432718279</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1156.759809793763</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>923.103505038173</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>750.8748194215261</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215261</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,10 +6701,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6786,16 +6786,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110834</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229682</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506736</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083216</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504523</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210314</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982984</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,22 +6859,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,10 +6883,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010326</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,25 +7172,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,19 +7199,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7312,16 +7312,16 @@
         <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,34 +7330,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7375,7 +7375,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,13 +7637,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,19 +7655,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142017</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165111</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>148.1350559470644</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>272.8719470256802</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>297.3877236703344</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>22.04402060665547</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>202.5230052237939</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>135.0713814551669</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799499</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6828975533075</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>86.27513419560084</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.358185587178</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>131.3169157613387</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>32.55095792595614</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>130.9089884290385</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>235.0358888605396</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>163.3566071551158</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338483</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.7208623434409</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.21884529571934</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.153637185780099e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931669</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>848243.257488667</v>
+        <v>848243.2574886672</v>
       </c>
     </row>
     <row r="12">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196778</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="I2" t="n">
         <v>566992.1366196779</v>
@@ -26341,19 +26341,19 @@
         <v>589892.0991506411</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516042</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="N2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086702</v>
+        <v>10342.90680086698</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284551</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.66962143906</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143905</v>
-      </c>
       <c r="H4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563559</v>
+        <v>33210.29213563557</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
@@ -26451,13 +26451,13 @@
         <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275955</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775716</v>
+        <v>-234346.6323775718</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369729</v>
+        <v>355621.2468369726</v>
       </c>
       <c r="D6" t="n">
         <v>355621.2468369727</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737453</v>
+        <v>-65298.35455334617</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.141049522</v>
+        <v>459861.68192355</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.1410495221</v>
+        <v>459861.6819235497</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.1410495221</v>
+        <v>459861.68192355</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.9218569291</v>
+        <v>283438.4627309568</v>
       </c>
       <c r="K6" t="n">
-        <v>415890.9931819373</v>
+        <v>415872.4994440028</v>
       </c>
       <c r="L6" t="n">
-        <v>449732.8136679525</v>
+        <v>449732.813667953</v>
       </c>
       <c r="M6" t="n">
-        <v>325274.705234982</v>
+        <v>325274.7052349825</v>
       </c>
       <c r="N6" t="n">
         <v>460075.72046882</v>
       </c>
       <c r="O6" t="n">
-        <v>460075.7204688197</v>
+        <v>460075.7204688198</v>
       </c>
       <c r="P6" t="n">
         <v>415913.1151659744</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26738,28 +26738,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26829,7 +26829,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108377</v>
+        <v>12.92863350108373</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>194.1117089132764</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>186.9006504808599</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>220.0769779437421</v>
+        <v>23.75498498155849</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>89.56002855569164</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.3132597717979</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>59.72786674754934</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>242.9833393878099</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-2.250924017556841e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31534,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047529</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>397.3927609030887</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>265.0957540022528</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>522.1296519817046</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>630.5822970683473</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412243</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -36996,19 +36996,19 @@
         <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043166</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37154,19 +37154,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>304.4077228477636</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595513</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>484.886707464902</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
